--- a/Info/Additional_information.xlsx
+++ b/Info/Additional_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788EB51C-E122-4619-8BE6-0B4E13C6F7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C24E51-9DA5-4D37-B319-DDB0CD5F06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="0" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="1860" windowWidth="33150" windowHeight="17700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colours_specifications" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="366">
   <si>
     <t>good quality (UNC for UNC collection; UNC and XF for XF collection)</t>
   </si>
@@ -1160,6 +1160,18 @@
   </si>
   <si>
     <t>Есть относительно дешевые евро.</t>
+  </si>
+  <si>
+    <t>Ekaterinburg Mint</t>
+  </si>
+  <si>
+    <t>Екатеринбургский монетный двор</t>
+  </si>
+  <si>
+    <t>Yekaterinburg</t>
+  </si>
+  <si>
+    <t>ЕМ</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1898,6 +1910,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,7 +1971,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="34">
     <dxf>
       <font>
         <b val="0"/>
@@ -2151,33 +2169,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color auto="1"/>
@@ -2532,27 +2523,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{973D7237-72C7-453E-A0E1-526C93326B28}" name="Таблица3" displayName="Таблица3" ref="A1:F49" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A1:F49" xr:uid="{A2D8FA3D-4024-4365-BE1D-F93D0AF2D426}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{973D7237-72C7-453E-A0E1-526C93326B28}" name="Таблица3" displayName="Таблица3" ref="A1:F50" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:F50" xr:uid="{A2D8FA3D-4024-4365-BE1D-F93D0AF2D426}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{12C2DF0B-47FA-46A4-8424-55A1488EF88B}" name="ID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{EB0B36CE-168D-429E-896D-DBA54794224F}" name="Name_Eng" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{6C3A2CE8-252E-4C52-985B-8CDDFD9FA0C7}" name="OfficialMintName_Native" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{DA5871DC-2EDB-49C0-953E-EC0F70288E21}" name="Country" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{FCD85F85-A94E-4BBE-9D3B-2B7494638375}" name="Mint_City" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{E5141978-CA91-4DE9-86F1-8A8AFA716534}" name="Alias" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{12C2DF0B-47FA-46A4-8424-55A1488EF88B}" name="ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{EB0B36CE-168D-429E-896D-DBA54794224F}" name="Name_Eng" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{6C3A2CE8-252E-4C52-985B-8CDDFD9FA0C7}" name="OfficialMintName_Native" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{DA5871DC-2EDB-49C0-953E-EC0F70288E21}" name="Country" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{FCD85F85-A94E-4BBE-9D3B-2B7494638375}" name="Mint_City" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{E5141978-CA91-4DE9-86F1-8A8AFA716534}" name="Alias" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D0F8E3D-96B1-4DB8-B1A6-8DD6B84F3693}" name="Таблица35" displayName="Таблица35" ref="A1:E50" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:E50" xr:uid="{A2D8FA3D-4024-4365-BE1D-F93D0AF2D426}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F76071E9-6A6B-48D1-85B5-8DCB38433B75}" name="ID" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9D0F8E3D-96B1-4DB8-B1A6-8DD6B84F3693}" name="Таблица35" displayName="Таблица35" ref="A1:D51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:D51" xr:uid="{A2D8FA3D-4024-4365-BE1D-F93D0AF2D426}"/>
+  <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{74AFB32D-7AAA-46BE-8174-ED698BB4613E}" name="Mint_id" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{523D65CD-0F56-441F-90B5-E46A9B14F0D0}" name="Name_Eng" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{523D65CD-0F56-441F-90B5-E46A9B14F0D0}" name="Ekaterinburg Mint" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{1AAB7352-E935-4EC6-A0D1-3EDC5D0BC93C}" name="Year_of_start" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{5FF15381-476A-4F88-B93A-6452F2830A0A}" name="Year_of_end" dataDxfId="8"/>
   </tableColumns>
@@ -2857,7 +2847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2968,12 +2958,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2990,7 +2980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3007,7 +2997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3024,7 +3014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3041,7 +3031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(C3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3114,10 +3104,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="74">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="84">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3134,8 +3124,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="4" t="s">
         <v>65</v>
       </c>
@@ -3150,8 +3140,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="76"/>
-      <c r="B4" s="83">
+      <c r="A4" s="78"/>
+      <c r="B4" s="85">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3168,14 +3158,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="76"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -3184,7 +3174,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="76"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="16" t="s">
         <v>91</v>
       </c>
@@ -3193,8 +3183,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="76"/>
-      <c r="B8" s="84">
+      <c r="A8" s="78"/>
+      <c r="B8" s="86">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3202,14 +3192,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="17">
         <v>7</v>
       </c>
@@ -3218,14 +3208,14 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="24"/>
       <c r="C11" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="18">
         <v>8</v>
       </c>
@@ -3234,7 +3224,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="25" t="s">
         <v>78</v>
       </c>
@@ -3243,7 +3233,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="78"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="26" t="s">
         <v>92</v>
       </c>
@@ -3252,7 +3242,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="79">
+      <c r="A15" s="81">
         <v>2</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -3263,7 +3253,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="80"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="20" t="s">
         <v>93</v>
       </c>
@@ -3272,7 +3262,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="80"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="21">
         <v>8</v>
       </c>
@@ -3281,7 +3271,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="81"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="22" t="s">
         <v>94</v>
       </c>
@@ -3290,7 +3280,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68">
+      <c r="A19" s="70">
         <v>3</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -3301,7 +3291,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="69"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="27" t="s">
         <v>95</v>
       </c>
@@ -3310,7 +3300,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="70"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="28" t="s">
         <v>97</v>
       </c>
@@ -3319,7 +3309,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71">
+      <c r="A22" s="73">
         <v>4</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -3330,7 +3320,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="20" t="s">
         <v>100</v>
       </c>
@@ -3339,7 +3329,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="72"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="21" t="s">
         <v>102</v>
       </c>
@@ -3348,7 +3338,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="16" t="s">
         <v>104</v>
       </c>
@@ -3357,7 +3347,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="29" t="s">
         <v>106</v>
       </c>
@@ -3366,7 +3356,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="30" t="s">
         <v>108</v>
       </c>
@@ -3375,7 +3365,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="72"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="18">
         <v>8</v>
       </c>
@@ -3384,7 +3374,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="73"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="31" t="s">
         <v>78</v>
       </c>
@@ -3414,13 +3404,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C14141-45DA-4C30-845C-3E630B347F10}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4412,6 +4402,26 @@
         <v>300</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="35">
+        <v>49</v>
+      </c>
+      <c r="B50" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4422,803 +4432,666 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1BA8E2-9FD2-4C47-B5D3-EF9907B8F692}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="35">
-        <v>1</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="42">
+      <c r="C2" s="42">
         <v>1194</v>
       </c>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="38">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="43">
+      <c r="C3" s="43">
         <v>1938</v>
       </c>
-      <c r="E3" s="44">
+      <c r="D3" s="44">
         <v>1944</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
-        <v>3</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="42">
+      <c r="C4" s="42">
         <v>1591</v>
       </c>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="38">
-        <v>4</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="42">
+      <c r="C5" s="42">
         <v>1973</v>
       </c>
-      <c r="E5" s="43"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="35">
-        <v>5</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="42">
+      <c r="C6" s="42">
         <v>989</v>
       </c>
-      <c r="E6" s="43">
+      <c r="D6" s="43">
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>6</v>
       </c>
-      <c r="B7" s="38">
-        <v>6</v>
-      </c>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="42">
+      <c r="C7" s="42">
         <v>1010</v>
       </c>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="35">
-        <v>7</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="42">
+      <c r="C8" s="42">
         <v>1994</v>
       </c>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>8</v>
       </c>
-      <c r="B9" s="38">
-        <v>8</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="43">
+      <c r="C9" s="43">
         <v>1972</v>
       </c>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="35">
-        <v>9</v>
-      </c>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="36" t="s">
         <v>145</v>
       </c>
+      <c r="C10" s="43">
+        <v>1988</v>
+      </c>
       <c r="D10" s="43">
-        <v>1988</v>
-      </c>
-      <c r="E10" s="43">
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="38">
-        <v>10</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="43">
+      <c r="C11" s="43">
         <v>1280</v>
       </c>
-      <c r="E11" s="43"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="43"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="35">
-        <v>11</v>
-      </c>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="43">
+      <c r="C12" s="43">
         <v>1872</v>
       </c>
-      <c r="E12" s="44">
+      <c r="D12" s="44">
         <v>1878</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="38">
         <v>12</v>
       </c>
-      <c r="B13" s="38">
-        <v>12</v>
-      </c>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="43">
+      <c r="C13" s="43">
         <v>1872</v>
       </c>
-      <c r="E13" s="44">
+      <c r="D13" s="44">
         <v>1879</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="35">
-        <v>13</v>
-      </c>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="43">
+      <c r="C14" s="43">
         <v>1871</v>
       </c>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="38">
         <v>14</v>
       </c>
-      <c r="B15" s="38">
-        <v>14</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="43">
+      <c r="C15" s="43">
         <v>1872</v>
       </c>
-      <c r="E15" s="44">
+      <c r="D15" s="44">
         <v>1887</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="35">
-        <v>15</v>
-      </c>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="43">
+      <c r="C16" s="43">
         <v>1888</v>
       </c>
-      <c r="E16" s="44">
+      <c r="D16" s="44">
         <v>1953</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <v>16</v>
       </c>
-      <c r="B17" s="38">
-        <v>16</v>
-      </c>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="43">
+      <c r="C17" s="43">
         <v>1374</v>
       </c>
-      <c r="E17" s="44"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
         <v>17</v>
       </c>
-      <c r="B18" s="35">
-        <v>17</v>
-      </c>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="43">
+      <c r="C18" s="43">
         <v>1827</v>
       </c>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="44"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="38">
         <v>18</v>
       </c>
-      <c r="B19" s="38">
-        <v>18</v>
-      </c>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="43">
+      <c r="C19" s="43">
         <v>1872</v>
       </c>
-      <c r="E19" s="44">
+      <c r="D19" s="44">
         <v>1882</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
         <v>19</v>
       </c>
-      <c r="B20" s="35">
-        <v>19</v>
-      </c>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="43">
+      <c r="C20" s="43">
         <v>801</v>
       </c>
-      <c r="E20" s="43"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="43"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="38">
         <v>20</v>
       </c>
-      <c r="B21" s="38">
-        <v>20</v>
-      </c>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="43">
+      <c r="C21" s="43">
         <v>1990</v>
       </c>
-      <c r="E21" s="43"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="43"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
         <v>21</v>
       </c>
-      <c r="B22" s="35">
-        <v>21</v>
-      </c>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="43">
+      <c r="C22" s="43">
         <v>1328</v>
       </c>
-      <c r="E22" s="43"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D22" s="43"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="38">
         <v>22</v>
       </c>
-      <c r="B23" s="38">
-        <v>22</v>
-      </c>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="43">
+      <c r="C23" s="43">
         <v>1976</v>
       </c>
-      <c r="E23" s="43"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="43"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="35">
         <v>23</v>
       </c>
-      <c r="B24" s="35">
-        <v>23</v>
-      </c>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="43">
+      <c r="C24" s="43">
         <v>1928</v>
       </c>
-      <c r="E24" s="43"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="38">
         <v>24</v>
       </c>
-      <c r="B25" s="38">
-        <v>24</v>
-      </c>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="43">
+      <c r="C25" s="43">
         <v>1972</v>
       </c>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="43"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="35">
         <v>25</v>
       </c>
-      <c r="B26" s="35">
-        <v>25</v>
-      </c>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="D26" s="43">
+      <c r="C26" s="43">
         <v>1942</v>
       </c>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="38">
         <v>26</v>
       </c>
-      <c r="B27" s="38">
-        <v>26</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="43">
+      <c r="C27" s="43">
         <v>1724</v>
       </c>
-      <c r="E27" s="43"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="35">
         <v>27</v>
       </c>
-      <c r="B28" s="35">
-        <v>27</v>
-      </c>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="43">
+      <c r="C28" s="43">
         <v>1992</v>
       </c>
-      <c r="E28" s="44">
+      <c r="D28" s="44">
         <v>1996</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="38">
         <v>28</v>
       </c>
-      <c r="B29" s="38">
-        <v>28</v>
-      </c>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="43">
+      <c r="C29" s="43">
         <v>1998</v>
       </c>
-      <c r="E29" s="43"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29" s="43"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="35">
         <v>29</v>
       </c>
-      <c r="B30" s="35">
-        <v>29</v>
-      </c>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="43">
+      <c r="C30" s="43">
         <v>1968</v>
       </c>
-      <c r="E30" s="43"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D30" s="43"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="38">
         <v>30</v>
       </c>
-      <c r="B31" s="38">
-        <v>30</v>
-      </c>
-      <c r="C31" s="39" t="s">
+      <c r="B31" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="D31" s="43">
+      <c r="C31" s="43">
         <v>1792</v>
       </c>
-      <c r="E31" s="44"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="35">
         <v>31</v>
       </c>
-      <c r="B32" s="35">
-        <v>31</v>
-      </c>
-      <c r="C32" s="36" t="s">
+      <c r="B32" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="43">
+      <c r="C32" s="43">
         <v>1906</v>
       </c>
-      <c r="E32" s="44"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="44"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="38">
         <v>32</v>
       </c>
-      <c r="B33" s="38">
-        <v>32</v>
-      </c>
-      <c r="C33" s="36" t="s">
+      <c r="B33" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="D33" s="43">
+      <c r="C33" s="43">
         <v>1854</v>
       </c>
-      <c r="E33" s="43"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="43"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="38">
         <v>33</v>
       </c>
-      <c r="B34" s="38">
-        <v>33</v>
-      </c>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="D34" s="43">
+      <c r="C34" s="43">
         <v>1835</v>
       </c>
-      <c r="E34" s="44">
+      <c r="D34" s="44">
         <v>1942</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
         <v>34</v>
       </c>
-      <c r="B35" s="35">
-        <v>34</v>
-      </c>
-      <c r="C35" s="39" t="s">
+      <c r="B35" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="43">
+      <c r="C35" s="43">
         <v>1973</v>
       </c>
-      <c r="E35" s="44"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="44"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="35">
         <v>35</v>
       </c>
-      <c r="B36" s="35">
-        <v>35</v>
-      </c>
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="43">
+      <c r="C36" s="43">
         <v>1908</v>
       </c>
-      <c r="E36" s="43"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="43"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="35">
         <v>36</v>
       </c>
-      <c r="B37" s="35">
-        <v>36</v>
-      </c>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D37" s="43">
+      <c r="C37" s="43">
         <v>1976</v>
       </c>
-      <c r="E37" s="43"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="43"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="35">
         <v>37</v>
       </c>
-      <c r="B38" s="35">
-        <v>37</v>
-      </c>
-      <c r="C38" s="39" t="s">
+      <c r="B38" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="D38" s="43">
+      <c r="C38" s="43">
         <v>1803</v>
       </c>
-      <c r="E38" s="44"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="35">
         <v>38</v>
       </c>
-      <c r="B39" s="35">
-        <v>38</v>
-      </c>
-      <c r="C39" s="39" t="s">
+      <c r="B39" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="D39" s="43">
+      <c r="C39" s="43">
         <v>1829</v>
       </c>
-      <c r="E39" s="44"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="44"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="35">
         <v>39</v>
       </c>
-      <c r="B40" s="35">
-        <v>39</v>
-      </c>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="43">
+      <c r="C40" s="43">
         <v>1757</v>
       </c>
-      <c r="E40" s="43"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="43"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="35">
         <v>40</v>
       </c>
-      <c r="B41" s="35">
-        <v>40</v>
-      </c>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="36" t="s">
         <v>262</v>
       </c>
+      <c r="C41" s="43">
+        <v>1640</v>
+      </c>
       <c r="D41" s="43">
-        <v>1640</v>
-      </c>
-      <c r="E41" s="43">
         <v>1869</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="35">
         <v>41</v>
       </c>
-      <c r="B42" s="35">
-        <v>41</v>
-      </c>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="D42" s="43">
+      <c r="C42" s="43">
         <v>1992</v>
       </c>
-      <c r="E42" s="43"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="43"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="35">
         <v>42</v>
       </c>
-      <c r="B43" s="35">
-        <v>42</v>
-      </c>
-      <c r="C43" s="36" t="s">
+      <c r="B43" s="36" t="s">
         <v>270</v>
       </c>
+      <c r="C43" s="43">
+        <v>1850</v>
+      </c>
       <c r="D43" s="43">
-        <v>1850</v>
-      </c>
-      <c r="E43" s="43">
         <v>2003</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="38">
         <v>43</v>
       </c>
-      <c r="B44" s="38">
-        <v>43</v>
-      </c>
-      <c r="C44" s="39" t="s">
+      <c r="B44" s="39" t="s">
         <v>274</v>
       </c>
+      <c r="C44" s="43">
+        <v>1860</v>
+      </c>
       <c r="D44" s="43">
-        <v>1860</v>
-      </c>
-      <c r="E44" s="43">
         <v>1895</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="38">
         <v>44</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="43">
+        <v>1890</v>
+      </c>
+      <c r="D45" s="44">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="38">
         <v>44</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="B46" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D45" s="43">
-        <v>1890</v>
-      </c>
-      <c r="E45" s="44">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="35">
+      <c r="C46" s="43">
+        <v>1923</v>
+      </c>
+      <c r="D46" s="43"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="35">
         <v>45</v>
       </c>
-      <c r="B46" s="38">
-        <v>44</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="D46" s="43">
-        <v>1923</v>
-      </c>
-      <c r="E46" s="43"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="38">
+      <c r="B47" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="43">
+        <v>1943</v>
+      </c>
+      <c r="D47" s="43"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="35">
         <v>46</v>
       </c>
-      <c r="B47" s="35">
-        <v>45</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="43">
-        <v>1943</v>
-      </c>
-      <c r="E47" s="43"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="38">
+      <c r="B48" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="43">
+        <v>1988</v>
+      </c>
+      <c r="D48" s="43"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="35">
         <v>47</v>
       </c>
-      <c r="B48" s="35">
-        <v>46</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" s="43">
-        <v>1988</v>
-      </c>
-      <c r="E48" s="43"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="38">
-        <v>48</v>
-      </c>
-      <c r="B49" s="35">
-        <v>47</v>
-      </c>
-      <c r="C49" s="36" t="s">
+      <c r="B49" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="D49" s="43">
+      <c r="C49" s="43">
         <v>1951</v>
       </c>
-      <c r="E49" s="43"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D49" s="43"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="38">
         <v>48</v>
       </c>
-      <c r="B50" s="35">
-        <v>47</v>
-      </c>
-      <c r="C50" s="36" t="s">
+      <c r="B50" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="D50" s="43">
+      <c r="C50" s="43">
         <v>1535</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="D50" s="43"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="35">
+        <v>49</v>
+      </c>
+      <c r="B51" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="C51" s="69">
+        <v>1725</v>
+      </c>
+      <c r="D51" s="69">
+        <v>1876</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5354,11 +5227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8265AFD9-D9EB-4B75-B60D-6B7F7204230D}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I59" sqref="I59"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Info/Additional_information.xlsx
+++ b/Info/Additional_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C24E51-9DA5-4D37-B319-DDB0CD5F06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB770B6-8FF7-4B6A-A0A4-C1329223206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="1860" windowWidth="33150" windowHeight="17700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colours_specifications" sheetId="1" r:id="rId1"/>
@@ -3066,11 +3066,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D9DE6C-583F-4F0B-9E0F-CDE5965E194A}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5227,11 +5227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8265AFD9-D9EB-4B75-B60D-6B7F7204230D}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
